--- a/Discharge/Station1_2022-06-07_1043.xlsx
+++ b/Discharge/Station1_2022-06-07_1043.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://adminliveunc-my.sharepoint.com/personal/kriddie_ad_unc_edu/Documents/Ecuador2021/Ecuador2021/Discharge/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1cba20500feb7d90/Documents/LongTermData_CayambeCoca/Discharge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{8A8852F7-CF38-40C6-A484-A732B3EBA99E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{480AF75E-D1FD-CD47-BEAF-B70E31762258}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{8A8852F7-CF38-40C6-A484-A732B3EBA99E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BAA8B884-5A50-453C-A2EA-13CAA3C03E38}"/>
   <bookViews>
-    <workbookView xWindow="2120" yWindow="2120" windowWidth="14400" windowHeight="11240" xr2:uid="{7B53C71C-F7CF-734F-B494-F08F8AA11E8D}"/>
+    <workbookView xWindow="9650" yWindow="250" windowWidth="8720" windowHeight="9730" xr2:uid="{7B53C71C-F7CF-734F-B494-F08F8AA11E8D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>x</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>Qtotal</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Atotal</t>
   </si>
 </sst>
 </file>
@@ -411,15 +417,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA679708-A90B-7145-8BA8-0A131B2AB705}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,8 +444,14 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>25</v>
       </c>
@@ -457,8 +469,16 @@
         <f>SUM(E2:E20)</f>
         <v>1.6000000000000007E-3</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2">
+        <f>(D2-0)*B2/100</f>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>SUM(G2:G11)</f>
+        <v>3.6999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>30</v>
       </c>
@@ -477,8 +497,12 @@
         <v>5.9999999999999988E-5</v>
       </c>
       <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3">
+        <f>(D3-D2)*B3/100</f>
+        <v>5.9999999999999984E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>40</v>
       </c>
@@ -497,8 +521,12 @@
         <v>3.0000000000000014E-4</v>
       </c>
       <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4">
+        <f t="shared" ref="G4:G15" si="1">(D4-D3)*B4/100</f>
+        <v>6.0000000000000019E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>50</v>
       </c>
@@ -517,8 +545,12 @@
         <v>7.0000000000000032E-4</v>
       </c>
       <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>7.0000000000000019E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>60</v>
       </c>
@@ -529,7 +561,7 @@
         <v>0.01</v>
       </c>
       <c r="D6">
-        <f t="shared" ref="D6:D19" si="1">(A6/100+(A7/100-A6/100)/2)</f>
+        <f t="shared" ref="D6:D19" si="2">(A6/100+(A7/100-A6/100)/2)</f>
         <v>0.64999999999999991</v>
       </c>
       <c r="E6">
@@ -537,8 +569,12 @@
         <v>5.9999999999999913E-5</v>
       </c>
       <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>5.9999999999999923E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>70</v>
       </c>
@@ -549,7 +585,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
       <c r="E7">
@@ -557,8 +593,12 @@
         <v>4.200000000000004E-4</v>
       </c>
       <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>6.0000000000000053E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>80</v>
       </c>
@@ -569,7 +609,7 @@
         <v>0.01</v>
       </c>
       <c r="D8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.82499999999999996</v>
       </c>
       <c r="E8">
@@ -577,8 +617,12 @@
         <v>5.9999999999999968E-5</v>
       </c>
       <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>5.9999999999999967E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>85</v>
       </c>
@@ -589,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.42499999999999999</v>
       </c>
       <c r="E9">
@@ -597,13 +641,17 @@
         <v>0</v>
       </c>
       <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E10">
@@ -611,13 +659,17 @@
         <v>0</v>
       </c>
       <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E11">
@@ -625,13 +677,17 @@
         <v>0</v>
       </c>
       <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E12">
@@ -639,13 +695,17 @@
         <v>0</v>
       </c>
       <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E13">
@@ -653,13 +713,17 @@
         <v>0</v>
       </c>
       <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E14">
@@ -667,13 +731,17 @@
         <v>0</v>
       </c>
       <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E15">
@@ -681,13 +749,17 @@
         <v>0</v>
       </c>
       <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E16">
@@ -696,12 +768,12 @@
       </c>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E17">
@@ -710,12 +782,12 @@
       </c>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E18">
@@ -724,12 +796,12 @@
       </c>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E19">
